--- a/2019_sell/20200211_mc.xlsx
+++ b/2019_sell/20200211_mc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_sell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB563E9A-63F2-4D76-9F34-3CF2B82608C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D019E699-BB56-44E0-9CFC-3327B6DD174B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90E51262-4B9F-477D-A907-ED8B90799079}"/>
   </bookViews>
@@ -893,7 +893,7 @@
   <dimension ref="A3:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A3:M56"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1453,7 +1453,7 @@
         <v>49</v>
       </c>
       <c r="E26" s="4">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
